--- a/Player_Positions.xlsx
+++ b/Player_Positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22929339-6E62-42A6-A3A4-EE235F810CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B19515-A684-499E-9AF8-CD11A5757781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A256BCE2-616E-47A0-B9EF-3250AE7F456A}"/>
   </bookViews>
@@ -1863,7 +1863,7 @@
     <t>PLAYER</t>
   </si>
   <si>
-    <t>POSITION</t>
+    <t>POSITION2</t>
   </si>
 </sst>
 </file>
@@ -2218,12 +2218,13 @@
   <dimension ref="A1:B603"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">

--- a/Player_Positions.xlsx
+++ b/Player_Positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B19515-A684-499E-9AF8-CD11A5757781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27CDF29-2DA7-4583-9FB0-C16B9201DC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A256BCE2-616E-47A0-B9EF-3250AE7F456A}"/>
   </bookViews>
@@ -1863,7 +1863,7 @@
     <t>PLAYER</t>
   </si>
   <si>
-    <t>POSITION2</t>
+    <t>POSITION</t>
   </si>
 </sst>
 </file>

--- a/Player_Positions.xlsx
+++ b/Player_Positions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27CDF29-2DA7-4583-9FB0-C16B9201DC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BCE5A1-DF92-4C6B-B8E9-1D45D0C9ED04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A256BCE2-616E-47A0-B9EF-3250AE7F456A}"/>
+    <workbookView xWindow="4356" yWindow="492" windowWidth="15576" windowHeight="12216" xr2:uid="{A256BCE2-616E-47A0-B9EF-3250AE7F456A}"/>
   </bookViews>
   <sheets>
     <sheet name="Positions" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="697">
   <si>
     <t>Aaron Gordon</t>
   </si>
@@ -1864,6 +1864,270 @@
   </si>
   <si>
     <t>POSITION</t>
+  </si>
+  <si>
+    <t>Braxton Key</t>
+  </si>
+  <si>
+    <t>Eugene Omoruyi</t>
+  </si>
+  <si>
+    <t>Trayvon Palmer</t>
+  </si>
+  <si>
+    <t>Jose Alvarado</t>
+  </si>
+  <si>
+    <t>Ade Murkey</t>
+  </si>
+  <si>
+    <t>Scottie Lewis</t>
+  </si>
+  <si>
+    <t>Davon Reed</t>
+  </si>
+  <si>
+    <t>Ish Wainright</t>
+  </si>
+  <si>
+    <t>Duane Washington Jr.</t>
+  </si>
+  <si>
+    <t>Javonte Smart</t>
+  </si>
+  <si>
+    <t>Matt Mooney</t>
+  </si>
+  <si>
+    <t>Arnoldas Kulboka</t>
+  </si>
+  <si>
+    <t>Micah Potter</t>
+  </si>
+  <si>
+    <t>Marko Simonovic</t>
+  </si>
+  <si>
+    <t>Jon Teske</t>
+  </si>
+  <si>
+    <t>Haywood Highsmith</t>
+  </si>
+  <si>
+    <t>Cheick Diallo</t>
+  </si>
+  <si>
+    <t>Rob Edwards</t>
+  </si>
+  <si>
+    <t>Olivier Sarr</t>
+  </si>
+  <si>
+    <t>Moses Wright</t>
+  </si>
+  <si>
+    <t>Darren Collison</t>
+  </si>
+  <si>
+    <t>Daishen Nix</t>
+  </si>
+  <si>
+    <t>Isaiah Livers</t>
+  </si>
+  <si>
+    <t>Justin Anderson</t>
+  </si>
+  <si>
+    <t>Paris Bass</t>
+  </si>
+  <si>
+    <t>Craig Sword</t>
+  </si>
+  <si>
+    <t>JaQuori McLaughlin</t>
+  </si>
+  <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
+    <t>Cade Cunningham</t>
+  </si>
+  <si>
+    <t>Shaq Buchanan</t>
+  </si>
+  <si>
+    <t>Yves Pons</t>
+  </si>
+  <si>
+    <t>Joe Wieskamp</t>
+  </si>
+  <si>
+    <t>Xavier Moon</t>
+  </si>
+  <si>
+    <t>Jaysean Paige</t>
+  </si>
+  <si>
+    <t>George King</t>
+  </si>
+  <si>
+    <t>Ahmad Caver</t>
+  </si>
+  <si>
+    <t>Jay Huff</t>
+  </si>
+  <si>
+    <t>Lance Stephenson</t>
+  </si>
+  <si>
+    <t>Keifer Sykes</t>
+  </si>
+  <si>
+    <t>Hassani Gravett</t>
+  </si>
+  <si>
+    <t>BJ Johnson</t>
+  </si>
+  <si>
+    <t>Brandon Knight</t>
+  </si>
+  <si>
+    <t>Cameron McGriff</t>
+  </si>
+  <si>
+    <t>Trevon Scott</t>
+  </si>
+  <si>
+    <t>MJ Walker</t>
+  </si>
+  <si>
+    <t>Jarron Cumberland</t>
+  </si>
+  <si>
+    <t>Lindell Wigginton</t>
+  </si>
+  <si>
+    <t>Jeff Dowtin</t>
+  </si>
+  <si>
+    <t>Jordan Schakel</t>
+  </si>
+  <si>
+    <t>Jemerrio Jones</t>
+  </si>
+  <si>
+    <t>CJ Miles</t>
+  </si>
+  <si>
+    <t>Neemias Queta</t>
+  </si>
+  <si>
+    <t>Aaron Wiggins</t>
+  </si>
+  <si>
+    <t>Enes Freedom</t>
+  </si>
+  <si>
+    <t>Trevelin Queen</t>
+  </si>
+  <si>
+    <t>Greg Monroe</t>
+  </si>
+  <si>
+    <t>Aleem Ford</t>
+  </si>
+  <si>
+    <t>Carlik Jones</t>
+  </si>
+  <si>
+    <t>Admiral Schofield</t>
+  </si>
+  <si>
+    <t>Tyler Hall</t>
+  </si>
+  <si>
+    <t>David Duke Jr.</t>
+  </si>
+  <si>
+    <t>David Johnson</t>
+  </si>
+  <si>
+    <t>Terry Taylor</t>
+  </si>
+  <si>
+    <t>Mac McClung</t>
+  </si>
+  <si>
+    <t>Jonathan Kuminga</t>
+  </si>
+  <si>
+    <t>Xavier Sneed</t>
+  </si>
+  <si>
+    <t>Scotty Hopson</t>
+  </si>
+  <si>
+    <t>Joe Johnson</t>
+  </si>
+  <si>
+    <t>Zylan Cheatham</t>
+  </si>
+  <si>
+    <t>Kessler Edwards</t>
+  </si>
+  <si>
+    <t>Trendon Watford</t>
+  </si>
+  <si>
+    <t>Malcolm Hill</t>
+  </si>
+  <si>
+    <t>Brandon Williams</t>
+  </si>
+  <si>
+    <t>Keon Johnson</t>
+  </si>
+  <si>
+    <t>Emmanuel Mudiay</t>
+  </si>
+  <si>
+    <t>Emanuel Terry</t>
+  </si>
+  <si>
+    <t>Jaylen Morris</t>
+  </si>
+  <si>
+    <t>Myles Powell</t>
+  </si>
+  <si>
+    <t>Derrick Walton Jr.</t>
+  </si>
+  <si>
+    <t>Jordan Goodwin</t>
+  </si>
+  <si>
+    <t>Malik Newman</t>
+  </si>
+  <si>
+    <t>Chaundee Brown Jr.</t>
+  </si>
+  <si>
+    <t>Sam Hauser</t>
+  </si>
+  <si>
+    <t>Cat Barber</t>
+  </si>
+  <si>
+    <t>DeJon Jarreau</t>
+  </si>
+  <si>
+    <t>Javin DeLaurier</t>
+  </si>
+  <si>
+    <t>Jaime Echenique</t>
+  </si>
+  <si>
+    <t>Nik Stauskas</t>
   </si>
 </sst>
 </file>
@@ -2215,10 +2479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84EB052B-3BE7-49CF-9FAB-B98234BC3C78}">
-  <dimension ref="A1:B603"/>
+  <dimension ref="A1:B691"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A671" workbookViewId="0">
+      <selection activeCell="B692" sqref="B692"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7051,8 +7315,713 @@
         <v>8</v>
       </c>
     </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>609</v>
+      </c>
+      <c r="B604" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
+        <v>610</v>
+      </c>
+      <c r="B605" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
+        <v>611</v>
+      </c>
+      <c r="B606" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>612</v>
+      </c>
+      <c r="B607" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
+        <v>613</v>
+      </c>
+      <c r="B608" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>614</v>
+      </c>
+      <c r="B609" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>615</v>
+      </c>
+      <c r="B610" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
+        <v>616</v>
+      </c>
+      <c r="B611" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
+        <v>617</v>
+      </c>
+      <c r="B612" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
+        <v>618</v>
+      </c>
+      <c r="B613" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>619</v>
+      </c>
+      <c r="B614" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
+        <v>620</v>
+      </c>
+      <c r="B615" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
+        <v>621</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
+        <v>622</v>
+      </c>
+      <c r="B617" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
+        <v>623</v>
+      </c>
+      <c r="B618" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
+        <v>624</v>
+      </c>
+      <c r="B619" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
+        <v>625</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
+        <v>626</v>
+      </c>
+      <c r="B621" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
+        <v>627</v>
+      </c>
+      <c r="B622" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
+        <v>628</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
+        <v>629</v>
+      </c>
+      <c r="B624" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
+        <v>630</v>
+      </c>
+      <c r="B625" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
+        <v>631</v>
+      </c>
+      <c r="B626" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
+        <v>632</v>
+      </c>
+      <c r="B627" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
+        <v>633</v>
+      </c>
+      <c r="B628" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
+        <v>674</v>
+      </c>
+      <c r="B629" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
+        <v>675</v>
+      </c>
+      <c r="B630" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>676</v>
+      </c>
+      <c r="B631" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
+        <v>677</v>
+      </c>
+      <c r="B632" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
+        <v>678</v>
+      </c>
+      <c r="B633" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
+        <v>679</v>
+      </c>
+      <c r="B634" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A635" t="s">
+        <v>680</v>
+      </c>
+      <c r="B635" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
+        <v>681</v>
+      </c>
+      <c r="B636" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
+        <v>682</v>
+      </c>
+      <c r="B637" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638" t="s">
+        <v>683</v>
+      </c>
+      <c r="B638" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A639" t="s">
+        <v>684</v>
+      </c>
+      <c r="B639" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A640" t="s">
+        <v>685</v>
+      </c>
+      <c r="B640" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A641" t="s">
+        <v>686</v>
+      </c>
+      <c r="B641" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A642" t="s">
+        <v>687</v>
+      </c>
+      <c r="B642" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A643" t="s">
+        <v>688</v>
+      </c>
+      <c r="B643" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A644" t="s">
+        <v>689</v>
+      </c>
+      <c r="B644" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A645" t="s">
+        <v>690</v>
+      </c>
+      <c r="B645" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A646" t="s">
+        <v>691</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A647" t="s">
+        <v>692</v>
+      </c>
+      <c r="B647" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A648" t="s">
+        <v>693</v>
+      </c>
+      <c r="B648" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A649" t="s">
+        <v>694</v>
+      </c>
+      <c r="B649" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A650" t="s">
+        <v>695</v>
+      </c>
+      <c r="B650" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A651" t="s">
+        <v>696</v>
+      </c>
+      <c r="B651" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A652" t="s">
+        <v>673</v>
+      </c>
+      <c r="B652" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A653" t="s">
+        <v>672</v>
+      </c>
+      <c r="B653" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A654" t="s">
+        <v>671</v>
+      </c>
+      <c r="B654" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655" t="s">
+        <v>670</v>
+      </c>
+      <c r="B655" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A656" t="s">
+        <v>669</v>
+      </c>
+      <c r="B656" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A657" t="s">
+        <v>668</v>
+      </c>
+      <c r="B657" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A658" t="s">
+        <v>667</v>
+      </c>
+      <c r="B658" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A659" t="s">
+        <v>666</v>
+      </c>
+      <c r="B659" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A660" t="s">
+        <v>665</v>
+      </c>
+      <c r="B660" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
+        <v>660</v>
+      </c>
+      <c r="B661" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A662" t="s">
+        <v>662</v>
+      </c>
+      <c r="B662" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
+        <v>661</v>
+      </c>
+      <c r="B663" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A664" t="s">
+        <v>663</v>
+      </c>
+      <c r="B664" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A665" t="s">
+        <v>664</v>
+      </c>
+      <c r="B665" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A666" t="s">
+        <v>659</v>
+      </c>
+      <c r="B666" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A667" t="s">
+        <v>658</v>
+      </c>
+      <c r="B667" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A668" t="s">
+        <v>657</v>
+      </c>
+      <c r="B668" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A669" t="s">
+        <v>656</v>
+      </c>
+      <c r="B669" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A670" t="s">
+        <v>655</v>
+      </c>
+      <c r="B670" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671" t="s">
+        <v>654</v>
+      </c>
+      <c r="B671" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A672" t="s">
+        <v>653</v>
+      </c>
+      <c r="B672" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
+        <v>652</v>
+      </c>
+      <c r="B673" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A674" t="s">
+        <v>651</v>
+      </c>
+      <c r="B674" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A675" t="s">
+        <v>650</v>
+      </c>
+      <c r="B675" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A676" t="s">
+        <v>649</v>
+      </c>
+      <c r="B676" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A677" t="s">
+        <v>648</v>
+      </c>
+      <c r="B677" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A678" t="s">
+        <v>647</v>
+      </c>
+      <c r="B678" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A679" t="s">
+        <v>646</v>
+      </c>
+      <c r="B679" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A680" t="s">
+        <v>645</v>
+      </c>
+      <c r="B680" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
+        <v>644</v>
+      </c>
+      <c r="B681" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>643</v>
+      </c>
+      <c r="B682" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
+        <v>642</v>
+      </c>
+      <c r="B683" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
+        <v>641</v>
+      </c>
+      <c r="B684" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A685" t="s">
+        <v>640</v>
+      </c>
+      <c r="B685" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A686" t="s">
+        <v>639</v>
+      </c>
+      <c r="B686" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A687" t="s">
+        <v>638</v>
+      </c>
+      <c r="B687" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688" t="s">
+        <v>637</v>
+      </c>
+      <c r="B688" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A689" t="s">
+        <v>636</v>
+      </c>
+      <c r="B689" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A690" t="s">
+        <v>635</v>
+      </c>
+      <c r="B690" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A691" t="s">
+        <v>634</v>
+      </c>
+      <c r="B691" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B603" xr:uid="{84EB052B-3BE7-49CF-9FAB-B98234BC3C78}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>